--- a/biology/Botanique/Alisma_graminoïde/Alisma_graminoïde.xlsx
+++ b/biology/Botanique/Alisma_graminoïde/Alisma_graminoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alisma_gramino%C3%AFde</t>
+          <t>Alisma_graminoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alisma gramineum, l'alisma graminoïde ou Flûteau à feuilles de graminée, est une espèce de plantes herbacées monocotylédones de la famille des Alismataceae. Cette plante se développe dans les milieux humides.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alisma_gramino%C3%AFde</t>
+          <t>Alisma_graminoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante herbacée, mesurant entre 5 et 100 cm de hauteur. Les feuilles sont submergées, flottantes ou émergentes. Les feuilles submergées sont sessiles et rubanées. Les feuilles émergées sont plutôt linéaires, un peu plus larges au sommet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée, mesurant entre 5 et 100 cm de hauteur. Les feuilles sont submergées, flottantes ou émergentes. Les feuilles submergées sont sessiles et rubanées. Les feuilles émergées sont plutôt linéaires, un peu plus larges au sommet.
 La floraison est une panicule de fleurs mauve clair à blanches. La floraison est estivale ou automnale.
 Le fruit est un akène plutôt rond de 3 à 6 mm de diamètre.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alisma_gramino%C3%AFde</t>
+          <t>Alisma_graminoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Taxonomie et classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Synonymes[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Synonymes:
 Alisma geyeri Torrey
 Alisma gramineum var. angustissimum A. J. Hendricks
 Alisma gramineum var. wahlenbergii Raymond et Kucyniak</t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alisma_gramino%C3%AFde</t>
+          <t>Alisma_graminoïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez répandu dans le centre de l’Amérique du Nord. Au Canada, on la trouve à l'état naturel dans les provinces de la Colombie-Britannique, de la Saskatchewan, du Manitoba, de l'Ontario et du Québec. Aux États-Unis, elle est présente dans les États de l'Arizona, la Californie, le Colorado, l'Idaho, le Minnesota, le Montana, le Nebraska, le Nevada, l'État de New-York, le Dakota du Nord et du Sud, l'Oregon, l'Utah, Le Vermont, l'État de Washington et le Wyoming[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez répandu dans le centre de l’Amérique du Nord. Au Canada, on la trouve à l'état naturel dans les provinces de la Colombie-Britannique, de la Saskatchewan, du Manitoba, de l'Ontario et du Québec. Aux États-Unis, elle est présente dans les États de l'Arizona, la Californie, le Colorado, l'Idaho, le Minnesota, le Montana, le Nebraska, le Nevada, l'État de New-York, le Dakota du Nord et du Sud, l'Oregon, l'Utah, Le Vermont, l'État de Washington et le Wyoming.
 Elle pousse dans les eaux peu profondes des marais et des lacs. On la trouve aussi dans les zones boueuses.
 </t>
         </is>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alisma_gramino%C3%AFde</t>
+          <t>Alisma_graminoïde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,9 +627,11 @@
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est cultivée et commercialisée pour agrémenter les jardins d'eau[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est cultivée et commercialisée pour agrémenter les jardins d'eau.
 </t>
         </is>
       </c>
